--- a/30_KnowHow/Javascript/JS usage summary.xlsx
+++ b/30_KnowHow/Javascript/JS usage summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JS面向对象原理" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="73">
   <si>
     <t>……</t>
   </si>
@@ -285,6 +285,39 @@
     <t>JS面向对象原理</t>
   </si>
   <si>
+    <t>location.href = '../order/CVOdSendEntry.jsp?del=del&amp;addId='+id+'&amp;CVMm=Y';</t>
+  </si>
+  <si>
+    <t>服务端画面跳转</t>
+  </si>
+  <si>
+    <t>客户端画面跳转</t>
+  </si>
+  <si>
+    <t>2 超链接</t>
+  </si>
+  <si>
+    <t>1 JS控制</t>
+  </si>
+  <si>
+    <t>&lt;a href="../Top/a.jsp?param1=123&amp;param2=234" &gt;点我&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>点击这个超链接</t>
+  </si>
+  <si>
+    <t>3 表单提交</t>
+  </si>
+  <si>
+    <t>&lt;button type="submit" /&gt;Commit &lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="submit" value="Commit" /&gt;</t>
+  </si>
+  <si>
     <r>
       <t>&lt;form class="single_form" action="</t>
     </r>
@@ -306,33 +339,57 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>" method="post" name="Goods"&gt;</t>
+      <t>" method="post" name="</t>
     </r>
-  </si>
-  <si>
-    <t>href="../Top/a.jsp?param1=123&amp;param2=234"</t>
-  </si>
-  <si>
-    <t>HTML画面遷移</t>
-  </si>
-  <si>
-    <t>location.href = '../order/CVOdSendEntry.jsp?del=del&amp;addId='+id+'&amp;CVMm=Y';</t>
-  </si>
-  <si>
-    <t>JS画面遷移</t>
-  </si>
-  <si>
-    <t>response.sendRedirect(pageContext, "../cart/CCtViewCart_001_P.jsp");</t>
-  </si>
-  <si>
-    <t>JSP画面遷移</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>goodsForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>2 通过JS提交表单  document.forms.goodsForm.submit();</t>
+  </si>
+  <si>
+    <t>1 点击Commit按钮</t>
+  </si>
+  <si>
+    <t>&lt;input type="image" src="submitButton.jpg" /&gt;</t>
+  </si>
+  <si>
+    <t>3 点击submitButton图片</t>
+  </si>
+  <si>
+    <t>request.getRequestDispatcher(url).forward(req, res);</t>
+  </si>
+  <si>
+    <t>触发表单提交有以下三种方式</t>
+  </si>
+  <si>
+    <t>response.sendRedirect(url)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +453,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -519,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -541,6 +606,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1770,7 +1838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q97" sqref="Q97"/>
     </sheetView>
   </sheetViews>
@@ -2609,17 +2677,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -2628,46 +2696,96 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
